--- a/webrouting/src/main/resources/static/documents/Contacts - SAMPLE.xlsx
+++ b/webrouting/src/main/resources/static/documents/Contacts - SAMPLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306DCCF6-BC19-4B0E-A12B-6197F0476074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E7E089-491C-4639-926C-951765984C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{E62239A7-DED8-46F7-8BF2-208ABF076210}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E62239A7-DED8-46F7-8BF2-208ABF076210}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>First Name</t>
   </si>
@@ -69,16 +69,51 @@
   </si>
   <si>
     <t>Work Phone</t>
+  </si>
+  <si>
+    <t>117 Alpine Drive</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>213-285-1000</t>
+  </si>
+  <si>
+    <t>apt 1</t>
+  </si>
+  <si>
+    <t>willshatner@email.com</t>
+  </si>
+  <si>
+    <t>Beverly Hills</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Shatner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,13 +136,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -124,13 +162,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBB0CF9-C030-4D21-BB73-EF70A587EE89}" name="Table1" displayName="Table1" ref="A1:K49" totalsRowShown="0">
-  <autoFilter ref="A1:K49" xr:uid="{DBBB0CF9-C030-4D21-BB73-EF70A587EE89}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBB0CF9-C030-4D21-BB73-EF70A587EE89}" name="Table1" displayName="Table1" ref="A1:K2" totalsRowShown="0">
+  <autoFilter ref="A1:K2" xr:uid="{DBBB0CF9-C030-4D21-BB73-EF70A587EE89}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{54B3AAFC-E12C-47EA-BE03-9E0FB8FD5D55}" name="First Name"/>
     <tableColumn id="2" xr3:uid="{D8058A8F-78C1-4F6E-A514-0C4CE55AE5C4}" name="Last Name"/>
     <tableColumn id="3" xr3:uid="{E93BB504-F49E-4957-815E-E68AA930EC3D}" name="Middle Initial"/>
-    <tableColumn id="4" xr3:uid="{99EF68B5-6442-45BC-B22B-0084D4A562DE}" name="Email"/>
+    <tableColumn id="4" xr3:uid="{99EF68B5-6442-45BC-B22B-0084D4A562DE}" name="Email" dataCellStyle="Hyperlink"/>
     <tableColumn id="5" xr3:uid="{80B385BB-94A9-4A68-ACA6-6ACD8B649923}" name="Street Address 1"/>
     <tableColumn id="6" xr3:uid="{19D52265-F243-47BE-8A90-656D2E638EDA}" name="Street Address 2"/>
     <tableColumn id="7" xr3:uid="{EFBB6B45-392B-4D76-ADE5-99310A428A63}" name="City"/>
@@ -440,15 +478,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C1370A-19DE-484F-804B-97A484CE784F}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,10 +525,48 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>90210</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{9E1EC300-C966-47D0-82A2-4B46E198E2D7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/webrouting/src/main/resources/static/documents/Contacts - SAMPLE.xlsx
+++ b/webrouting/src/main/resources/static/documents/Contacts - SAMPLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E7E089-491C-4639-926C-951765984C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84619065-B2D7-42A5-8297-8F0DBE021D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E62239A7-DED8-46F7-8BF2-208ABF076210}"/>
+    <workbookView xWindow="3912" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{E62239A7-DED8-46F7-8BF2-208ABF076210}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>First Name</t>
   </si>
@@ -80,22 +80,70 @@
     <t>A</t>
   </si>
   <si>
-    <t>213-285-1000</t>
-  </si>
-  <si>
-    <t>apt 1</t>
-  </si>
-  <si>
     <t>willshatner@email.com</t>
   </si>
   <si>
     <t>Beverly Hills</t>
   </si>
   <si>
-    <t>William</t>
-  </si>
-  <si>
     <t>Shatner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizabeth </t>
+  </si>
+  <si>
+    <t>Widsor</t>
+  </si>
+  <si>
+    <t>queenE@email.com</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>740-852-8545</t>
+  </si>
+  <si>
+    <t>310-285-1000</t>
+  </si>
+  <si>
+    <t>Alea</t>
+  </si>
+  <si>
+    <t>Cramer</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>acramer@email.com</t>
+  </si>
+  <si>
+    <t>87 Liberty Street</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>814-573-3325</t>
+  </si>
+  <si>
+    <t>Apt. 1</t>
+  </si>
+  <si>
+    <t>1 Buckingham Palace Ln</t>
   </si>
 </sst>
 </file>
@@ -162,8 +210,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBB0CF9-C030-4D21-BB73-EF70A587EE89}" name="Table1" displayName="Table1" ref="A1:K2" totalsRowShown="0">
-  <autoFilter ref="A1:K2" xr:uid="{DBBB0CF9-C030-4D21-BB73-EF70A587EE89}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBB0CF9-C030-4D21-BB73-EF70A587EE89}" name="Table1" displayName="Table1" ref="A1:K12" totalsRowShown="0">
+  <autoFilter ref="A1:K12" xr:uid="{DBBB0CF9-C030-4D21-BB73-EF70A587EE89}">
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="notEqual" val="*.*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{54B3AAFC-E12C-47EA-BE03-9E0FB8FD5D55}" name="First Name"/>
     <tableColumn id="2" xr3:uid="{D8058A8F-78C1-4F6E-A514-0C4CE55AE5C4}" name="Last Name"/>
@@ -478,16 +532,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C1370A-19DE-484F-804B-97A484CE784F}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="25.21875" customWidth="1"/>
     <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -527,25 +583,25 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -554,19 +610,115 @@
         <v>90210</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>43140</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>16323</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{9E1EC300-C966-47D0-82A2-4B46E198E2D7}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{1CC61FAD-0773-4E54-BBB5-B266DA773730}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{8B2FD66B-798B-4CEE-91B2-85497EF8C6BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/webrouting/src/main/resources/static/documents/Contacts - SAMPLE.xlsx
+++ b/webrouting/src/main/resources/static/documents/Contacts - SAMPLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPSC 488 Software Engineering\excel samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dakot\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB6577B-E968-4E31-833B-0D9406B47DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC6DF9F-C7F7-400A-81AD-AE74A3EAB4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6F7B2A25-9F4D-490E-B70D-6C9AB6577A80}"/>
+    <workbookView xWindow="7545" yWindow="3720" windowWidth="27045" windowHeight="15195" xr2:uid="{6F7B2A25-9F4D-490E-B70D-6C9AB6577A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,18 +71,9 @@
     <t>Work Phone</t>
   </si>
   <si>
-    <t>Dakota</t>
-  </si>
-  <si>
-    <t>Myers</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>drm1022@sru.edu</t>
-  </si>
-  <si>
     <t>5 Wallaby Street</t>
   </si>
   <si>
@@ -288,6 +279,15 @@
   </si>
   <si>
     <t>Room 2</t>
+  </si>
+  <si>
+    <t>Franz</t>
+  </si>
+  <si>
+    <t>Ferdinand</t>
+  </si>
+  <si>
+    <t>therockband@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -735,7 +735,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,316 +794,315 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="I2" s="7">
         <v>16057</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I3" s="7">
         <v>90210</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="F4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="I4" s="7">
         <v>43140</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
         <v>16323</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="F6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="H6" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
         <v>15106</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="H7" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
         <v>16117</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7">
         <v>15204</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="F9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="I9" s="7">
         <v>21201</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="F10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="I10" s="7">
         <v>2116</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{53F3858D-E2FB-49FF-A6AD-8B7F3E390C7B}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{86BB99D8-338D-4851-A373-CE42134B575E}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{14344E1D-DFB4-44D9-A6B3-D5F935E42AD9}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{7835534C-348E-4727-9A97-1D3AD3C89624}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{DE246F06-3986-44B7-9FA4-268DA905EE2C}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{2BE0A223-E2FE-44C1-B586-016239D2DF82}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{21285CF2-9464-4207-ADF0-0A1A077C9EFD}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{1532AF6D-6272-47D0-9F47-D5153B620448}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{A6BCC042-A0D8-47BE-B32C-1885093B4F42}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{86BB99D8-338D-4851-A373-CE42134B575E}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{14344E1D-DFB4-44D9-A6B3-D5F935E42AD9}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{7835534C-348E-4727-9A97-1D3AD3C89624}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{DE246F06-3986-44B7-9FA4-268DA905EE2C}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{2BE0A223-E2FE-44C1-B586-016239D2DF82}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{21285CF2-9464-4207-ADF0-0A1A077C9EFD}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{1532AF6D-6272-47D0-9F47-D5153B620448}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{A6BCC042-A0D8-47BE-B32C-1885093B4F42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
